--- a/JOHN MURUNGI.xlsx
+++ b/JOHN MURUNGI.xlsx
@@ -48506,8 +48506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49106,8 +49106,12 @@
         <v>249</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
       <c r="F21" s="3">
         <f>'NOVEMBER  21'!J21</f>
         <v>0</v>
@@ -49119,10 +49123,12 @@
         <f>C21+F21+G21</f>
         <v>10000</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>10000</v>
+      </c>
       <c r="J21" s="3">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -49178,14 +49184,16 @@
         <v>10000</v>
       </c>
       <c r="I23" s="3">
-        <v>10800</v>
+        <v>10000</v>
       </c>
       <c r="J23" s="3">
         <f>H23-I23</f>
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3">
+        <v>600</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -49208,10 +49216,12 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3">
+        <v>10350</v>
+      </c>
       <c r="J24" s="3">
         <f t="shared" ref="J24:J29" si="2">H24-I24</f>
-        <v>10000</v>
+        <v>-350</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -49378,11 +49388,11 @@
       </c>
       <c r="D30" s="2">
         <f>SUM(D5:D29)</f>
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E30" s="2">
         <f>SUM(E5:E29)</f>
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="F30" s="3">
         <f>SUM(F5:F29)</f>
@@ -49398,11 +49408,11 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" si="3"/>
-        <v>81200</v>
+        <v>100750</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="3"/>
-        <v>248800</v>
+        <v>229250</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="3"/>
@@ -49410,7 +49420,7 @@
       </c>
       <c r="L30" s="2">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -49493,7 +49503,7 @@
       </c>
       <c r="G35" s="38">
         <f>I30</f>
-        <v>81200</v>
+        <v>100750</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -49524,7 +49534,7 @@
       </c>
       <c r="C37" s="38">
         <f>E30</f>
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
@@ -49533,7 +49543,7 @@
       </c>
       <c r="G37" s="38">
         <f>E30</f>
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
@@ -49565,7 +49575,7 @@
       </c>
       <c r="C39" s="38">
         <f>L30</f>
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
@@ -49574,7 +49584,7 @@
       </c>
       <c r="G39" s="38">
         <f>L30</f>
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -49703,7 +49713,7 @@
       </c>
       <c r="C49" s="42">
         <f>C35+C36+C37+C38+C39-D40</f>
-        <v>247404.97999999998</v>
+        <v>248304.97999999998</v>
       </c>
       <c r="D49" s="42">
         <f>SUM(D42:D48)</f>
@@ -49711,14 +49721,14 @@
       </c>
       <c r="E49" s="42">
         <f>C49-D49</f>
-        <v>237404.97999999998</v>
+        <v>238304.97999999998</v>
       </c>
       <c r="F49" s="37" t="s">
         <v>33</v>
       </c>
       <c r="G49" s="42">
         <f>G35+G36+G37+G38+G39-H40</f>
-        <v>88604.979999999981</v>
+        <v>109054.97999999998</v>
       </c>
       <c r="H49" s="42">
         <f>SUM(H42:H48)</f>
@@ -49726,7 +49736,7 @@
       </c>
       <c r="I49" s="42">
         <f>G49-H49</f>
-        <v>78604.979999999981</v>
+        <v>99054.979999999981</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
